--- a/data/trans_orig/P24C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P24C-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>113929</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>96570</v>
+        <v>96297</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>132455</v>
+        <v>132543</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3047668139802814</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.258332007506503</v>
+        <v>0.2576008802168163</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3543259948418802</v>
+        <v>0.3545622831373287</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>54</v>
@@ -764,19 +764,19 @@
         <v>54067</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>42256</v>
+        <v>42717</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>66934</v>
+        <v>66822</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.306256956822223</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2393540868531707</v>
+        <v>0.241966819883254</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3791415709161294</v>
+        <v>0.3785046798721811</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>167</v>
@@ -785,19 +785,19 @@
         <v>167995</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>147264</v>
+        <v>146523</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>191230</v>
+        <v>190709</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3052448102250205</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2675755343730392</v>
+        <v>0.2662293309305752</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3474612454875429</v>
+        <v>0.3465143882991171</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>139309</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>120793</v>
+        <v>121426</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>160564</v>
+        <v>157936</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.37266243329956</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3231285415677207</v>
+        <v>0.3248233971132929</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4295210670151259</v>
+        <v>0.4224885248446524</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>81</v>
@@ -835,19 +835,19 @@
         <v>84206</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>70871</v>
+        <v>71194</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>97940</v>
+        <v>97539</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4769757519407619</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4014410852390207</v>
+        <v>0.4032724371477419</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5547703620132374</v>
+        <v>0.5525023655837549</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>213</v>
@@ -856,19 +856,19 @@
         <v>223515</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>199521</v>
+        <v>199549</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>248661</v>
+        <v>246593</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4061232353001252</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3625254047509792</v>
+        <v>0.3625771965113261</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4518120618276969</v>
+        <v>0.4480556000793304</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>120584</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>102892</v>
+        <v>103982</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>138792</v>
+        <v>139860</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3225707527201586</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2752432038391248</v>
+        <v>0.2781602808854661</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3712777460515507</v>
+        <v>0.3741347405131314</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>37</v>
@@ -906,19 +906,19 @@
         <v>38268</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>29186</v>
+        <v>27178</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>50439</v>
+        <v>49962</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2167672912370151</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.165319346759276</v>
+        <v>0.1539483227340019</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2857066927214685</v>
+        <v>0.2830056426623553</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>157</v>
@@ -927,19 +927,19 @@
         <v>158852</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>140980</v>
+        <v>138674</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>185523</v>
+        <v>179786</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2886319544748543</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2561591063510558</v>
+        <v>0.2519677831278196</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3370912996846017</v>
+        <v>0.3266676863022847</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>391309</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>362575</v>
+        <v>361806</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>419693</v>
+        <v>418144</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4791389295886261</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4439553882002406</v>
+        <v>0.4430138697933221</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5138941872687074</v>
+        <v>0.5119968773976691</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>237</v>
@@ -1052,19 +1052,19 @@
         <v>238732</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>215207</v>
+        <v>216693</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>261945</v>
+        <v>262247</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4364172180104424</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3934121613804173</v>
+        <v>0.3961280707954516</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4788504750571602</v>
+        <v>0.4794035410487112</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>624</v>
@@ -1073,19 +1073,19 @@
         <v>630041</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>593411</v>
+        <v>591814</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>667092</v>
+        <v>665266</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4620020095606285</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4351413656656253</v>
+        <v>0.4339706603303404</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4891707306634032</v>
+        <v>0.4878320288021359</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>307626</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>279697</v>
+        <v>279115</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>334741</v>
+        <v>335483</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3766732201617427</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3424750407218959</v>
+        <v>0.3417626368076088</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4098744795191263</v>
+        <v>0.4107829268104205</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>206</v>
@@ -1123,19 +1123,19 @@
         <v>211120</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>185887</v>
+        <v>189018</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>232790</v>
+        <v>232215</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3859395611746746</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3398132891738969</v>
+        <v>0.3455353290895679</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4255544450101134</v>
+        <v>0.4245028734353097</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>503</v>
@@ -1144,19 +1144,19 @@
         <v>518746</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>481237</v>
+        <v>482696</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>554983</v>
+        <v>556876</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3803902188264652</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.352885614688506</v>
+        <v>0.3539550953576711</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4069622822782776</v>
+        <v>0.4083504926296593</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>117757</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>98336</v>
+        <v>100166</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>139572</v>
+        <v>138800</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1441878502496313</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1204074634899044</v>
+        <v>0.122648719440819</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1708993118521089</v>
+        <v>0.1699535791832081</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>96</v>
@@ -1194,19 +1194,19 @@
         <v>97176</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>79415</v>
+        <v>79760</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>117548</v>
+        <v>115344</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1776432208148831</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1451762124098999</v>
+        <v>0.1458056341777868</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2148855482713922</v>
+        <v>0.2108559429322494</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>209</v>
@@ -1215,19 +1215,19 @@
         <v>214933</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>188449</v>
+        <v>185919</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>245363</v>
+        <v>241120</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1576077716129064</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1381875206613945</v>
+        <v>0.1363324101845792</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1799218916044857</v>
+        <v>0.1768102373697547</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>94643</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>80349</v>
+        <v>80103</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>108967</v>
+        <v>108801</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4906926493266114</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4165859619051455</v>
+        <v>0.4153105907307821</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5649578838724757</v>
+        <v>0.5641006845736676</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>54</v>
@@ -1340,19 +1340,19 @@
         <v>55413</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>43855</v>
+        <v>44329</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>66520</v>
+        <v>67305</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3994199188752255</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.316111990122638</v>
+        <v>0.3195236998662587</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4794789405714305</v>
+        <v>0.4851362952602268</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>149</v>
@@ -1361,19 +1361,19 @@
         <v>150056</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>131073</v>
+        <v>133796</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>168626</v>
+        <v>169691</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4525073604978229</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3952634589608773</v>
+        <v>0.4034747771974306</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5085088422562457</v>
+        <v>0.5117215961104792</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>64283</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>50073</v>
+        <v>50597</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>77991</v>
+        <v>77806</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3332886000922946</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2596116770446928</v>
+        <v>0.2623315931336436</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4043581799398113</v>
+        <v>0.4033994919047772</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>50</v>
@@ -1411,19 +1411,19 @@
         <v>51606</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>40281</v>
+        <v>40250</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>64214</v>
+        <v>63170</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3719761386217217</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2903503782764768</v>
+        <v>0.2901215603187285</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4628582598260294</v>
+        <v>0.4553346797335291</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>111</v>
@@ -1432,19 +1432,19 @@
         <v>115889</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>97022</v>
+        <v>98363</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>133442</v>
+        <v>132305</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3494741006850253</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2925792828399377</v>
+        <v>0.2966244840686767</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.402407470255018</v>
+        <v>0.3989783538998747</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>33950</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>22803</v>
+        <v>23560</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45895</v>
+        <v>46365</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1760187505810941</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1182244982463976</v>
+        <v>0.1221494014842123</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.237949769127634</v>
+        <v>0.2403855681633804</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>29</v>
@@ -1482,19 +1482,19 @@
         <v>31715</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>23110</v>
+        <v>22062</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>43124</v>
+        <v>43188</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2286039425030527</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1665758680053163</v>
+        <v>0.1590263448826722</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3108388667130594</v>
+        <v>0.3112980817787174</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>58</v>
@@ -1503,19 +1503,19 @@
         <v>65665</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>52143</v>
+        <v>50004</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>83554</v>
+        <v>83080</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1980185388171518</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1572413508959198</v>
+        <v>0.1507907442883758</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2519666989173542</v>
+        <v>0.2505373628363135</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>599880</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>562721</v>
+        <v>560642</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>638828</v>
+        <v>634813</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4336306500355889</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4067701856149983</v>
+        <v>0.4052668244451621</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4617850758257695</v>
+        <v>0.4588823127857108</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>345</v>
@@ -1628,19 +1628,19 @@
         <v>348212</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>321427</v>
+        <v>320269</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>378031</v>
+        <v>378837</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4038168159340124</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3727549224268473</v>
+        <v>0.3714111347697274</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.438397603245874</v>
+        <v>0.439332134927057</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>940</v>
@@ -1649,19 +1649,19 @@
         <v>948092</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>907340</v>
+        <v>898248</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>993718</v>
+        <v>996342</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4221827140007622</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4040359782337771</v>
+        <v>0.3999870240692819</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.442499555886773</v>
+        <v>0.4436680100291157</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>511218</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>475288</v>
+        <v>477562</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>547389</v>
+        <v>547299</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3695406271987067</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3435675659399393</v>
+        <v>0.3452114433732053</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3956872241733533</v>
+        <v>0.3956221672669968</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>337</v>
@@ -1699,19 +1699,19 @@
         <v>346931</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>317708</v>
+        <v>316751</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>377229</v>
+        <v>373202</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4023310659015357</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3684413118614261</v>
+        <v>0.3673316944972442</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4374669535623879</v>
+        <v>0.4327970684144466</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>827</v>
@@ -1720,19 +1720,19 @@
         <v>858150</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>814757</v>
+        <v>809114</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>902143</v>
+        <v>902344</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3821315218667643</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3628086799399053</v>
+        <v>0.3602962876335734</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4017214536754578</v>
+        <v>0.4018109407761856</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>272291</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>240549</v>
+        <v>244322</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>302147</v>
+        <v>304972</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1968287227657044</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1738839296541113</v>
+        <v>0.1766113418896383</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2184104984842893</v>
+        <v>0.2204527234744067</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>162</v>
@@ -1770,19 +1770,19 @@
         <v>167159</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>144858</v>
+        <v>144240</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>192437</v>
+        <v>191370</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1938521181644519</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1679895889666733</v>
+        <v>0.1672736044287819</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.223166218685228</v>
+        <v>0.2219291128392885</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>424</v>
@@ -1791,19 +1791,19 @@
         <v>439450</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>403801</v>
+        <v>401622</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>472766</v>
+        <v>480985</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1956857641324735</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1798115688105446</v>
+        <v>0.1788412312507267</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2105211043563439</v>
+        <v>0.2141813443244555</v>
       </c>
     </row>
     <row r="19">
@@ -2134,19 +2134,19 @@
         <v>37072</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>25187</v>
+        <v>25931</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47966</v>
+        <v>48142</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1109865449530781</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07540527235537221</v>
+        <v>0.07763331851931891</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.14360165800535</v>
+        <v>0.1441291236394266</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -2155,19 +2155,19 @@
         <v>14672</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8647</v>
+        <v>8254</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23834</v>
+        <v>23688</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07334711249297579</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04322638630457196</v>
+        <v>0.0412624918306306</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1191476612611623</v>
+        <v>0.118420098102922</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>51</v>
@@ -2176,19 +2176,19 @@
         <v>51744</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>39372</v>
+        <v>40055</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>66609</v>
+        <v>68777</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09688823122839429</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07372321250240353</v>
+        <v>0.07500080821938804</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1247224976290539</v>
+        <v>0.1287834052295937</v>
       </c>
     </row>
     <row r="5">
@@ -2205,19 +2205,19 @@
         <v>135013</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>116873</v>
+        <v>117805</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>153171</v>
+        <v>154370</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4042077027822901</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3498990281150021</v>
+        <v>0.352690996209618</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4585715713732914</v>
+        <v>0.4621593105344968</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>100</v>
@@ -2226,19 +2226,19 @@
         <v>108119</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>94385</v>
+        <v>92420</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>122408</v>
+        <v>121499</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5404975059907129</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4718385179736491</v>
+        <v>0.4620146415835542</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6119263586437573</v>
+        <v>0.6073832271462044</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>229</v>
@@ -2247,19 +2247,19 @@
         <v>243132</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>220433</v>
+        <v>219139</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>266106</v>
+        <v>267634</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4552567297606991</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.412753702824477</v>
+        <v>0.4103295620685</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4982750474471826</v>
+        <v>0.5011353771139259</v>
       </c>
     </row>
     <row r="6">
@@ -2276,19 +2276,19 @@
         <v>161934</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>143813</v>
+        <v>143834</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>180765</v>
+        <v>180554</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4848057522646317</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4305532051395102</v>
+        <v>0.4306186670654658</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.541183904878948</v>
+        <v>0.5405504117769443</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>72</v>
@@ -2297,19 +2297,19 @@
         <v>77245</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>62588</v>
+        <v>63826</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>91290</v>
+        <v>92652</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3861553815163113</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3128840263302551</v>
+        <v>0.319070145044338</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4563648853795921</v>
+        <v>0.4631745415079012</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>223</v>
@@ -2318,19 +2318,19 @@
         <v>239179</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>215628</v>
+        <v>216416</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>261840</v>
+        <v>264394</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4478550390109066</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4037553130697016</v>
+        <v>0.4052312470072124</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4902873071628602</v>
+        <v>0.4950696373543193</v>
       </c>
     </row>
     <row r="7">
@@ -2422,19 +2422,19 @@
         <v>162722</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>143092</v>
+        <v>138673</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>187487</v>
+        <v>187380</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1922973812085572</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1690985895167677</v>
+        <v>0.1638765712001279</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2215632058464801</v>
+        <v>0.2214368473742883</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>85</v>
@@ -2443,19 +2443,19 @@
         <v>90502</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>71913</v>
+        <v>73570</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>108531</v>
+        <v>108383</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1425482425678498</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1132695029215291</v>
+        <v>0.1158786692229953</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1709447648309933</v>
+        <v>0.1707127008168244</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>240</v>
@@ -2464,19 +2464,19 @@
         <v>253225</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>222085</v>
+        <v>223245</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>282793</v>
+        <v>283958</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1709717873115722</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1499469059773344</v>
+        <v>0.1507304506282391</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1909358717647946</v>
+        <v>0.1917223169821584</v>
       </c>
     </row>
     <row r="9">
@@ -2493,19 +2493,19 @@
         <v>407036</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>375274</v>
+        <v>376754</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>434867</v>
+        <v>438161</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4810155069267625</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4434808424779781</v>
+        <v>0.4452298894765522</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5139042381154845</v>
+        <v>0.5177973109095497</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>285</v>
@@ -2514,19 +2514,19 @@
         <v>308012</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>282709</v>
+        <v>282232</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>334060</v>
+        <v>333803</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4851432763206817</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4452891251603676</v>
+        <v>0.4445381808923909</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5261718059541209</v>
+        <v>0.5257673301036146</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>670</v>
@@ -2535,19 +2535,19 @@
         <v>715048</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>679094</v>
+        <v>674218</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>757271</v>
+        <v>754937</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4827849271860933</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4585095448077695</v>
+        <v>0.4552172505812269</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5112927271951414</v>
+        <v>0.5097174117161775</v>
       </c>
     </row>
     <row r="10">
@@ -2564,19 +2564,19 @@
         <v>276443</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>246981</v>
+        <v>248028</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>306153</v>
+        <v>304241</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3266871118646803</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2918702423153841</v>
+        <v>0.2931069925861798</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3617969952875164</v>
+        <v>0.3595368111041725</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>213</v>
@@ -2585,19 +2585,19 @@
         <v>236374</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>210287</v>
+        <v>211421</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>260501</v>
+        <v>262245</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3723084811114685</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3312193348889658</v>
+        <v>0.333005603342608</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4103099505617873</v>
+        <v>0.4130572350018761</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>467</v>
@@ -2606,19 +2606,19 @@
         <v>512817</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>475987</v>
+        <v>473654</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>550535</v>
+        <v>550244</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3462432855023345</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3213763491999026</v>
+        <v>0.3198011938607744</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3717095560478635</v>
+        <v>0.3715127181690757</v>
       </c>
     </row>
     <row r="11">
@@ -2710,19 +2710,19 @@
         <v>35089</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>25501</v>
+        <v>25468</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>47958</v>
+        <v>48161</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2173541443703028</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1579660137377955</v>
+        <v>0.1577563085806273</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2970727467229082</v>
+        <v>0.2983280464803786</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>29</v>
@@ -2731,19 +2731,19 @@
         <v>33105</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>23760</v>
+        <v>23814</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>44853</v>
+        <v>44403</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2374427233476761</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1704159368863494</v>
+        <v>0.1708053665549297</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3217052775054585</v>
+        <v>0.3184813256595344</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>61</v>
@@ -2752,19 +2752,19 @@
         <v>68194</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>53144</v>
+        <v>53428</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>84031</v>
+        <v>85666</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2266634853024162</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1766420094888231</v>
+        <v>0.1775870395996341</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2793051049478905</v>
+        <v>0.2847374231064118</v>
       </c>
     </row>
     <row r="13">
@@ -2781,19 +2781,19 @@
         <v>80503</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>68099</v>
+        <v>67530</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>94181</v>
+        <v>93740</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4986656712374737</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.42183354866245</v>
+        <v>0.4183108301204944</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5833965224873134</v>
+        <v>0.5806622285346027</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>56</v>
@@ -2802,19 +2802,19 @@
         <v>59642</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>48409</v>
+        <v>46946</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>72243</v>
+        <v>71432</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4277824304087172</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3472138747864783</v>
+        <v>0.3367176259050554</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5181602499304704</v>
+        <v>0.5123456821449084</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>131</v>
@@ -2823,19 +2823,19 @@
         <v>140145</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>121912</v>
+        <v>120792</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>157881</v>
+        <v>158367</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4658173420454864</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4052150078467993</v>
+        <v>0.4014909242409774</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5247697535829787</v>
+        <v>0.5263838309092091</v>
       </c>
     </row>
     <row r="14">
@@ -2852,19 +2852,19 @@
         <v>45845</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>34910</v>
+        <v>33627</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>58997</v>
+        <v>58996</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2839801843922234</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2162497604575156</v>
+        <v>0.2082995104800915</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3654520584615698</v>
+        <v>0.3654436458138328</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>42</v>
@@ -2873,19 +2873,19 @@
         <v>46675</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>35175</v>
+        <v>34945</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>57787</v>
+        <v>58646</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3347748462436067</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2522914390383008</v>
+        <v>0.250638479719966</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4144772242808406</v>
+        <v>0.4206386389943386</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>81</v>
@@ -2894,19 +2894,19 @@
         <v>92520</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>76643</v>
+        <v>76716</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>110900</v>
+        <v>111111</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3075191726520974</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2547486492244471</v>
+        <v>0.2549891456764975</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3686117150083412</v>
+        <v>0.3693134117059517</v>
       </c>
     </row>
     <row r="15">
@@ -2998,19 +2998,19 @@
         <v>234883</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>205000</v>
+        <v>206646</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>260841</v>
+        <v>263791</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1750692467021255</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1527959419617994</v>
+        <v>0.1540232716933727</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1944175602144607</v>
+        <v>0.1966162639795919</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>128</v>
@@ -3019,19 +3019,19 @@
         <v>138279</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>117172</v>
+        <v>116873</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>161993</v>
+        <v>162456</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.141919711912617</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1202568739081855</v>
+        <v>0.1199499819939584</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1662581312029327</v>
+        <v>0.1667334599107327</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>352</v>
@@ -3040,19 +3040,19 @@
         <v>373162</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>337719</v>
+        <v>340763</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>413426</v>
+        <v>414299</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1611231763927252</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.145819832448183</v>
+        <v>0.1471340668412095</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1785084098339744</v>
+        <v>0.1788853595501045</v>
       </c>
     </row>
     <row r="17">
@@ -3069,19 +3069,19 @@
         <v>622552</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>585823</v>
+        <v>584054</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>662764</v>
+        <v>656120</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4640172398588933</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4366413696742203</v>
+        <v>0.4353232122041436</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4939894117981727</v>
+        <v>0.4890374336596366</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>441</v>
@@ -3090,19 +3090,19 @@
         <v>475773</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>443189</v>
+        <v>443753</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>509855</v>
+        <v>505188</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4882997793712865</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4548579149151252</v>
+        <v>0.4554359785012653</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5232782287392405</v>
+        <v>0.5184883412680703</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1030</v>
@@ -3111,19 +3111,19 @@
         <v>1098325</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1042456</v>
+        <v>1046612</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1146168</v>
+        <v>1144662</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4742329489323673</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4501100374592407</v>
+        <v>0.4519044550397381</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4948906909256508</v>
+        <v>0.4942403782915156</v>
       </c>
     </row>
     <row r="18">
@@ -3140,19 +3140,19 @@
         <v>484222</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>445676</v>
+        <v>445645</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>521408</v>
+        <v>518920</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3609135134389813</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3321836494112283</v>
+        <v>0.3321607750896154</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3886305037115118</v>
+        <v>0.3867755092123077</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>327</v>
@@ -3161,19 +3161,19 @@
         <v>360295</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>329950</v>
+        <v>330933</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>392800</v>
+        <v>391663</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3697805087160964</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3386371341415892</v>
+        <v>0.3396460255549702</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4031416872870029</v>
+        <v>0.4019749030341623</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>771</v>
@@ -3182,19 +3182,19 @@
         <v>844516</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>795469</v>
+        <v>799210</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>896317</v>
+        <v>894044</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3646438746749074</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3434664678971005</v>
+        <v>0.3450814253646285</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3870100805187496</v>
+        <v>0.3860287110835704</v>
       </c>
     </row>
     <row r="19">
@@ -3525,19 +3525,19 @@
         <v>21123</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13820</v>
+        <v>12907</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31553</v>
+        <v>31933</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09525856767333069</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06232289822086111</v>
+        <v>0.05820755505341348</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1422946801174512</v>
+        <v>0.1440074112458999</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -3546,19 +3546,19 @@
         <v>8639</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4492</v>
+        <v>4548</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15075</v>
+        <v>15948</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06582525805790998</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03422625103688818</v>
+        <v>0.03465373006673687</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.114863271420815</v>
+        <v>0.1215142810178399</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -3567,19 +3567,19 @@
         <v>29763</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>20493</v>
+        <v>20540</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>42083</v>
+        <v>40681</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0843149515918493</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05805531661462788</v>
+        <v>0.0581883382483285</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1192170459742163</v>
+        <v>0.1152453935128887</v>
       </c>
     </row>
     <row r="5">
@@ -3596,19 +3596,19 @@
         <v>107328</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>92507</v>
+        <v>91854</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>124073</v>
+        <v>122430</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4840149271263491</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4171768572590893</v>
+        <v>0.4142323062311627</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5595259210690344</v>
+        <v>0.5521161679554693</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>56</v>
@@ -3617,19 +3617,19 @@
         <v>57837</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>46771</v>
+        <v>46528</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>70281</v>
+        <v>69873</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4406761147815835</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.35636460119403</v>
+        <v>0.3545112751232186</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.535488288333823</v>
+        <v>0.5323814978297101</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>160</v>
@@ -3638,19 +3638,19 @@
         <v>165165</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>145789</v>
+        <v>146994</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>184027</v>
+        <v>184784</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4679010979333183</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4130090486438091</v>
+        <v>0.4164235735575605</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.52133608912689</v>
+        <v>0.5234791768093928</v>
       </c>
     </row>
     <row r="6">
@@ -3667,19 +3667,19 @@
         <v>93294</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>77682</v>
+        <v>79020</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>108738</v>
+        <v>108404</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4207265052003202</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3503206415832889</v>
+        <v>0.3563524363022038</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4903719917486749</v>
+        <v>0.4888641345857914</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>62</v>
@@ -3688,19 +3688,19 @@
         <v>64770</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>52185</v>
+        <v>51914</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>75631</v>
+        <v>76169</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4934986271605065</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.397612003657462</v>
+        <v>0.3955455179103036</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5762538287728776</v>
+        <v>0.5803519482142208</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>151</v>
@@ -3709,19 +3709,19 @@
         <v>158064</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>137381</v>
+        <v>139913</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>176567</v>
+        <v>176250</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4477839504748324</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3891901571154385</v>
+        <v>0.3963631279964715</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5002016310017773</v>
+        <v>0.4993043091936565</v>
       </c>
     </row>
     <row r="7">
@@ -3813,19 +3813,19 @@
         <v>121816</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>100587</v>
+        <v>100584</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>141724</v>
+        <v>144482</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1530859457875114</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1264078725008257</v>
+        <v>0.1264036230924693</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1781049740668844</v>
+        <v>0.1815703519012357</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>93</v>
@@ -3834,19 +3834,19 @@
         <v>93998</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>78141</v>
+        <v>76821</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>113455</v>
+        <v>112168</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1456489522517538</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1210794867880799</v>
+        <v>0.1190330546262109</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1757973370924429</v>
+        <v>0.1738033449662141</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>202</v>
@@ -3855,19 +3855,19 @@
         <v>215813</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>189962</v>
+        <v>187589</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>244499</v>
+        <v>242064</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1497554317254655</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1318167394041066</v>
+        <v>0.1301701222310452</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1696608406055948</v>
+        <v>0.1679712422930374</v>
       </c>
     </row>
     <row r="9">
@@ -3884,19 +3884,19 @@
         <v>389703</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>363169</v>
+        <v>361859</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>418111</v>
+        <v>419931</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4897391024350768</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4563942721604888</v>
+        <v>0.4547480387143912</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5254405229570178</v>
+        <v>0.5277274224920956</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>299</v>
@@ -3905,19 +3905,19 @@
         <v>307129</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>281601</v>
+        <v>284303</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>333653</v>
+        <v>333044</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4758947992455433</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4363393036045133</v>
+        <v>0.4405250484329513</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5169939885857708</v>
+        <v>0.5160494897073754</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>663</v>
@@ -3926,19 +3926,19 @@
         <v>696831</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>655469</v>
+        <v>658404</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>734928</v>
+        <v>737772</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4835391983703127</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.454837509928116</v>
+        <v>0.4568743858984748</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5099749715859109</v>
+        <v>0.5119484971564648</v>
       </c>
     </row>
     <row r="10">
@@ -3955,19 +3955,19 @@
         <v>284217</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>258078</v>
+        <v>257464</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>313328</v>
+        <v>312305</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3571749517774118</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3243271278546921</v>
+        <v>0.3235545329564361</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3937597114146512</v>
+        <v>0.3924731582138892</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>233</v>
@@ -3976,19 +3976,19 @@
         <v>244245</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>221106</v>
+        <v>219300</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>269344</v>
+        <v>269069</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3784562485027029</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3426026484571508</v>
+        <v>0.3398046783935916</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4173467511556413</v>
+        <v>0.4169210812926893</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>498</v>
@@ -3997,19 +3997,19 @@
         <v>528461</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>492185</v>
+        <v>490711</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>568435</v>
+        <v>567790</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3667053699042218</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3415325489461614</v>
+        <v>0.3405101482178494</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3944435316196422</v>
+        <v>0.3939958828140773</v>
       </c>
     </row>
     <row r="11">
@@ -4101,19 +4101,19 @@
         <v>33792</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>24009</v>
+        <v>23612</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>44755</v>
+        <v>46510</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2481907549698091</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1763396528702219</v>
+        <v>0.1734235332935023</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3287071841691905</v>
+        <v>0.341595200677294</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>21</v>
@@ -4122,19 +4122,19 @@
         <v>20647</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>13150</v>
+        <v>13036</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>29725</v>
+        <v>28842</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1727458435850436</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1100211333520614</v>
+        <v>0.1090635322351627</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2486989613343968</v>
+        <v>0.2413080541513503</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>50</v>
@@ -4143,19 +4143,19 @@
         <v>54439</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>42425</v>
+        <v>42312</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>68823</v>
+        <v>68771</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.212921862810416</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1659318582905054</v>
+        <v>0.1654876809873154</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2691768499996284</v>
+        <v>0.2689757737206309</v>
       </c>
     </row>
     <row r="13">
@@ -4172,19 +4172,19 @@
         <v>64248</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>52444</v>
+        <v>51732</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>76756</v>
+        <v>76974</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4718800681654782</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3851840494416953</v>
+        <v>0.3799518827642767</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5637474092319977</v>
+        <v>0.5653422661293319</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>57</v>
@@ -4193,19 +4193,19 @@
         <v>58308</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>47628</v>
+        <v>47473</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>69334</v>
+        <v>69312</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4878360103553575</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3984824225195664</v>
+        <v>0.3971801037904023</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5800827536667507</v>
+        <v>0.5799012260289111</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>116</v>
@@ -4214,19 +4214,19 @@
         <v>122556</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>105270</v>
+        <v>105578</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>138331</v>
+        <v>140930</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4793391319256087</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4117286636006938</v>
+        <v>0.4129320684153664</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5410345302043362</v>
+        <v>0.5512023212370585</v>
       </c>
     </row>
     <row r="14">
@@ -4243,19 +4243,19 @@
         <v>38113</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>27832</v>
+        <v>28365</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>50758</v>
+        <v>50059</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2799291768647127</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2044140776454008</v>
+        <v>0.2083289539702684</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3727975785705284</v>
+        <v>0.3676642068715183</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>38</v>
@@ -4264,19 +4264,19 @@
         <v>40569</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>30353</v>
+        <v>30055</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>51420</v>
+        <v>52147</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.339418146059599</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.253949567892824</v>
+        <v>0.251457529114912</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4302095974943569</v>
+        <v>0.4362864729986584</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>71</v>
@@ -4285,19 +4285,19 @@
         <v>78682</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>63782</v>
+        <v>66203</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>95211</v>
+        <v>96838</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3077390052639754</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2494623617767224</v>
+        <v>0.258929266854847</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3723863184827044</v>
+        <v>0.3787501300690237</v>
       </c>
     </row>
     <row r="15">
@@ -4389,19 +4389,19 @@
         <v>176731</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>152993</v>
+        <v>152929</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>201854</v>
+        <v>204012</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.153195083955561</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1326185464273944</v>
+        <v>0.132562577454013</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1749720705159067</v>
+        <v>0.1768423500058704</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>123</v>
@@ -4410,19 +4410,19 @@
         <v>123284</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>103054</v>
+        <v>103238</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>143781</v>
+        <v>144521</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1375722930434201</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.114997111053243</v>
+        <v>0.1152027519693112</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1604441008072581</v>
+        <v>0.161270078233002</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>281</v>
@@ -4431,19 +4431,19 @@
         <v>300016</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>269422</v>
+        <v>264507</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>335426</v>
+        <v>330467</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1463649550703747</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1314398681783986</v>
+        <v>0.1290417072167439</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1636403339250291</v>
+        <v>0.1612209549268798</v>
       </c>
     </row>
     <row r="17">
@@ -4460,19 +4460,19 @@
         <v>561279</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>525832</v>
+        <v>528038</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>597466</v>
+        <v>595921</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.486531075010623</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.455804908225416</v>
+        <v>0.4577166651418773</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5178984619361013</v>
+        <v>0.5165589782051404</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>412</v>
@@ -4481,19 +4481,19 @@
         <v>423274</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>394294</v>
+        <v>394093</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>453609</v>
+        <v>456860</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4723294493716351</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4399906256610658</v>
+        <v>0.4397662150711714</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5061794798033158</v>
+        <v>0.5098078394871473</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>939</v>
@@ -4502,19 +4502,19 @@
         <v>984554</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>937698</v>
+        <v>938402</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1029353</v>
+        <v>1028359</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4803222654554703</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.45746346055471</v>
+        <v>0.4578070478154242</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5021779280587966</v>
+        <v>0.5016933515190377</v>
       </c>
     </row>
     <row r="18">
@@ -4531,19 +4531,19 @@
         <v>415625</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>384902</v>
+        <v>385202</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>452283</v>
+        <v>448002</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3602738410338159</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3336425092194568</v>
+        <v>0.3339029887304492</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3920504057344854</v>
+        <v>0.3883394981404178</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>333</v>
@@ -4552,19 +4552,19 @@
         <v>349583</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>321838</v>
+        <v>317980</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>380273</v>
+        <v>375961</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3900982575849448</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3591376164173487</v>
+        <v>0.354832124939799</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4243445875913917</v>
+        <v>0.4195324884893687</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>720</v>
@@ -4573,19 +4573,19 @@
         <v>765208</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>722581</v>
+        <v>721383</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>812335</v>
+        <v>814293</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.373312779474155</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3525168241670327</v>
+        <v>0.3519325784736603</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3963042979802283</v>
+        <v>0.3972593383970477</v>
       </c>
     </row>
     <row r="19">
